--- a/data/s_vals/2024/logue_zach.xlsx
+++ b/data/s_vals/2024/logue_zach.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2801774315799359</v>
+        <v>0.01514828764759746</v>
       </c>
       <c r="C2" t="n">
-        <v>751.8966760728309</v>
+        <v>45414161.82272212</v>
       </c>
       <c r="D2" t="n">
-        <v>5.22600755797499</v>
+        <v>337.1190423067083</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8325562821609895</v>
+        <v>8.660232485948974</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>758.2354173445468</v>
+        <v>45414507.6171452</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.32444174274583</v>
+        <v>1.459612070389937</v>
       </c>
       <c r="C3" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D3" t="n">
-        <v>2.295182259495947</v>
+        <v>26.21740644021617</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8325562821609895</v>
+        <v>8.660232485948974</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.759489143574918</v>
+        <v>38.00504557982321</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/logue_zach.xlsx
+++ b/data/s_vals/2024/logue_zach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>45414507.6171452</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +521,9 @@
       </c>
       <c r="G3" t="n">
         <v>38.00504557982321</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/logue_zach.xlsx
+++ b/data/s_vals/2024/logue_zach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,6 @@
           <t>sum</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Save</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -494,9 +489,6 @@
       <c r="G2" t="n">
         <v>45414507.6171452</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -521,9 +513,6 @@
       </c>
       <c r="G3" t="n">
         <v>38.00504557982321</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/logue_zach.xlsx
+++ b/data/s_vals/2024/logue_zach.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01514828764759746</v>
+        <v>0.02258322285507441</v>
       </c>
       <c r="C2" t="n">
-        <v>45414161.82272212</v>
+        <v>10990084.13351303</v>
       </c>
       <c r="D2" t="n">
-        <v>337.1190423067083</v>
+        <v>157.8057217802531</v>
       </c>
       <c r="E2" t="n">
-        <v>8.660232485948974</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>45414507.6171452</v>
+        <v>10990248.44324611</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.459612070389937</v>
+        <v>1.505614041169197</v>
       </c>
       <c r="C3" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D3" t="n">
-        <v>26.21740644021617</v>
+        <v>16.98373111632243</v>
       </c>
       <c r="E3" t="n">
-        <v>8.660232485948974</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>38.00504557982321</v>
+        <v>26.62400969366105</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
